--- a/bots/crawl_ch/output/clothes_2022-08-28.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,32 +531,30 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -574,156 +572,156 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -733,12 +731,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -747,40 +745,42 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>4091029003</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Avela Socken Cotton Euro 35 - 38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -798,42 +798,40 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4091029003</t>
+          <t>4091029004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38</t>
+          <t>Avela Socken Cotton Euro 39 - 41</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -856,35 +854,37 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4091029004</t>
+          <t>4091029007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41</t>
+          <t>Avela Socken Cotton Noir 35 - 38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -907,37 +907,37 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4091029007</t>
+          <t>4091029008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38</t>
+          <t>Avela Socken Cotton Noir 39 - 41</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -960,52 +960,70 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4091029008</t>
+          <t>6077158004</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41</t>
+          <t>Avela Söckchen Ideal Hasel One Size</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -1013,29 +1031,29 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6077158004</t>
+          <t>6077158006</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size</t>
+          <t>Avela Söckchen Ideal Noir One Size</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1084,29 +1102,29 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6077158006</t>
+          <t>6077154003</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size</t>
+          <t>Avela Söckchen Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1125,12 +1143,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>1.48/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1140,7 +1158,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1155,29 +1173,29 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6077154003</t>
+          <t>6077154004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size</t>
+          <t>Avela Söckchen Pure Natural One Size</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1226,39 +1244,37 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6077154004</t>
+          <t>6075681007</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1267,59 +1283,43 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6075681007</t>
+          <t>6075681008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1350,37 +1350,35 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6075681008</t>
+          <t>6075681005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1403,29 +1401,29 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6075681005</t>
+          <t>6075681006</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1454,35 +1452,37 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6075681006</t>
+          <t>6075681011</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1505,37 +1505,35 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6075681011</t>
+          <t>6075681012</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1558,29 +1556,29 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6075681012</t>
+          <t>6075681009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1609,29 +1607,29 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6075681009</t>
+          <t>6075681010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1660,29 +1658,29 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6075681010</t>
+          <t>6075681015</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1711,29 +1709,29 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6075681015</t>
+          <t>6075681016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1762,29 +1760,29 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6075681016</t>
+          <t>6075681013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1813,35 +1811,37 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6075681013</t>
+          <t>6075681014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1864,37 +1864,35 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075681014</t>
+          <t>6075745019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-10-10-12-nomade/p/6075745019</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1903,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1917,29 +1915,29 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6075745019</t>
+          <t>6075745020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 10-10 1/2 nomade</t>
+          <t>Avela Strumpfhose Madame 11-12 nomade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-10-10-12-nomade/p/6075745019</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-11-12-nomade/p/6075745020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1968,29 +1966,29 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 10-10 1/2 nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 11-12 nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6075745020</t>
+          <t>6075745018</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 11-12 nomade</t>
+          <t>Avela Strumpfhose Madame 9- nomade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-11-12-nomade/p/6075745020</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2019,29 +2017,29 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 11-12 nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 9- nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6075745018</t>
+          <t>6075745008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2070,29 +2068,29 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6075745008</t>
+          <t>6075745005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2121,29 +2119,29 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6075745005</t>
+          <t>6075745017</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2172,29 +2170,29 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6075745017</t>
+          <t>6076125011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2209,7 +2207,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2223,29 +2221,29 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6076125011</t>
+          <t>6076125012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2274,29 +2272,29 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6076125012</t>
+          <t>6076125009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2325,35 +2323,37 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6076125009</t>
+          <t>6076125010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2376,29 +2376,29 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6076125010</t>
+          <t>6076125015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2429,37 +2429,35 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6076125015</t>
+          <t>6076125016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2482,29 +2480,29 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6076125016</t>
+          <t>6076125013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2533,35 +2531,37 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6076125013</t>
+          <t>6076125014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2584,46 +2584,46 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6076125014</t>
+          <t>5799901002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
+          <t>Magic Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-schwarz-ecorepel/p/5799901002</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2632,39 +2632,39 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
+          <t>Magic Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>5799902001</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Magic Matic schwarz ecorepel</t>
+          <t>Mini Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-schwarz-ecorepel/p/5799901002</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/mini-matic-schwarz-ecorepel/p/5799902001</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2690,29 +2690,29 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Magic Matic schwarz ecorepel 19.95 Schweizer Franken</t>
+          <t>Mini Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5799902001</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mini Matic schwarz ecorepel</t>
+          <t>Naturaline Damen Bustier Schwarz M</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/mini-matic-schwarz-ecorepel/p/5799902001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2738,42 +2738,40 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Mini Matic schwarz ecorepel 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>3875554004</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M</t>
+          <t>Naturaline Damen Bustier Schwarz S</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-s/p/3875554004</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2796,29 +2794,29 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3875554004</t>
+          <t>3875554007</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz S</t>
+          <t>Naturaline Damen Bustier Weiss S</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-s/p/3875554004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-s/p/3875554007</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2847,35 +2845,37 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz S 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3875554007</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss S</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-s/p/3875554007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2898,37 +2898,35 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss S 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>4322745004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Damen String schwarz L</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2951,29 +2949,29 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>4322745002</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen String schwarz S</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3002,29 +3000,29 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>4322745007</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Naturaline Damen String weiss M</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3053,29 +3051,29 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>3404677005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Naturaline Herren Slip schwarz S</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3090,7 +3088,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3104,29 +3102,29 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3404677005</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3141,7 +3139,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3155,29 +3153,29 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3305289014</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Herren Slip weiss M</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3206,29 +3204,29 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3305289014</t>
+          <t>3305289013</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M</t>
+          <t>Naturaline Herren Slip weiss S</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3257,35 +3255,37 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3305289013</t>
+          <t>3305289016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S</t>
+          <t>Naturaline Herren Slip weiss XL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3308,37 +3308,35 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3305289016</t>
+          <t>6365980001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3356,34 +3354,34 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6365980001</t>
+          <t>6365980011</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3412,29 +3410,29 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6365980011</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3463,29 +3461,29 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3500,7 +3498,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3509,34 +3507,34 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6031467016</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3565,35 +3563,37 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xl/p/6031467019</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3616,29 +3616,29 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6031467019</t>
+          <t>6031467008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xl/p/6031467019</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3669,37 +3669,35 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6031467008</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3722,29 +3720,29 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6031467009</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3773,29 +3771,29 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6031467009</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3824,29 +3822,29 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>3890690001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Portemonnaie schwarz quer klein</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3861,7 +3859,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3870,156 +3868,156 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>6866398</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6866398</t>
+          <t>5796044002</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Taschenschirm fuchsia gepunktet</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5796044002</t>
+          <t>5796044001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
+          <t>Taschenschirm sand gepunktet</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4048,35 +4046,37 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5796044001</t>
+          <t>5796044003</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet</t>
+          <t>Taschenschirm türkis gepunktet</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4099,82 +4099,100 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5796044003</t>
+          <t>6866484</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6866484</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4223,83 +4241,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>6866483</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Tena</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2022-08-28 07:01:39</t>
+          <t>2022-08-28 20:57:25</t>
         </is>
       </c>
     </row>
